--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\ThaiVocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2359CBB1-D551-476F-936C-E99835F88FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD899233-1418-42CB-88EF-96557933EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5460" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="240">
   <si>
     <t>ตา</t>
   </si>
@@ -423,9 +423,6 @@
     <t>อาเป่าปี่ได้ดี</t>
   </si>
   <si>
-    <t>叔叔笛子吹得好</t>
-  </si>
-  <si>
     <t>sound</t>
   </si>
   <si>
@@ -439,6 +436,315 @@
   </si>
   <si>
     <t>sent_cn</t>
+  </si>
+  <si>
+    <t>เขาให้ไข่ไก่แก่ตา</t>
+  </si>
+  <si>
+    <t>他给叔叔鸡蛋。</t>
+  </si>
+  <si>
+    <t>叔叔笛子吹得好。</t>
+  </si>
+  <si>
+    <t>เขาเข้าไป</t>
+  </si>
+  <si>
+    <t>他进去。</t>
+  </si>
+  <si>
+    <t>คือ</t>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>ไฟฟ้า</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>ใบชา</t>
+  </si>
+  <si>
+    <t>茶叶</t>
+  </si>
+  <si>
+    <t>พ่อ</t>
+  </si>
+  <si>
+    <t>爸爸</t>
+  </si>
+  <si>
+    <t>เธอ</t>
+  </si>
+  <si>
+    <t>她；你</t>
+  </si>
+  <si>
+    <t>ภาษา</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>ฟ้า</t>
+  </si>
+  <si>
+    <t>天空；蓝色</t>
+  </si>
+  <si>
+    <t>ทำ</t>
+  </si>
+  <si>
+    <t>做</t>
+  </si>
+  <si>
+    <t>แพะ</t>
+  </si>
+  <si>
+    <t>山羊</t>
+  </si>
+  <si>
+    <t>ชื่อ</t>
+  </si>
+  <si>
+    <t>名字；名叫</t>
+  </si>
+  <si>
+    <t>ซื้อ</t>
+  </si>
+  <si>
+    <t>买</t>
+  </si>
+  <si>
+    <t>พี่</t>
+  </si>
+  <si>
+    <t>哥哥、姐姐</t>
+  </si>
+  <si>
+    <t>คะ/ค่ะ</t>
+  </si>
+  <si>
+    <t>语尾助词</t>
+  </si>
+  <si>
+    <t>ใช้</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>ภาษาไทย</t>
+  </si>
+  <si>
+    <t>泰语</t>
+  </si>
+  <si>
+    <t>คู่</t>
+  </si>
+  <si>
+    <t>对、双</t>
+  </si>
+  <si>
+    <t>ใช่</t>
+  </si>
+  <si>
+    <t>是、是的</t>
+  </si>
+  <si>
+    <t>คำ</t>
+  </si>
+  <si>
+    <t>字、词</t>
+  </si>
+  <si>
+    <t>นาฬิกา</t>
+  </si>
+  <si>
+    <t>钟表</t>
+  </si>
+  <si>
+    <t>เรา</t>
+  </si>
+  <si>
+    <t>我们</t>
+  </si>
+  <si>
+    <t>นี่</t>
+  </si>
+  <si>
+    <t>这</t>
+  </si>
+  <si>
+    <t>อะไร</t>
+  </si>
+  <si>
+    <t>什么</t>
+  </si>
+  <si>
+    <t>มา</t>
+  </si>
+  <si>
+    <t>来</t>
+  </si>
+  <si>
+    <t>มี</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>น้ำ</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>ไม่ใช่</t>
+  </si>
+  <si>
+    <t>不是</t>
+  </si>
+  <si>
+    <t>ใบไม้</t>
+  </si>
+  <si>
+    <t>树叶</t>
+  </si>
+  <si>
+    <t>ทำไม</t>
+  </si>
+  <si>
+    <t>为什么</t>
+  </si>
+  <si>
+    <t>ทีวี</t>
+  </si>
+  <si>
+    <t>电视机</t>
+  </si>
+  <si>
+    <t>และ</t>
+  </si>
+  <si>
+    <t>和、与</t>
+  </si>
+  <si>
+    <t>แม่</t>
+  </si>
+  <si>
+    <t>妈妈</t>
+  </si>
+  <si>
+    <t>น้า</t>
+  </si>
+  <si>
+    <t>小舅、小姨</t>
+  </si>
+  <si>
+    <t>นี้</t>
+  </si>
+  <si>
+    <t>这、这个</t>
+  </si>
+  <si>
+    <t>มือ</t>
+  </si>
+  <si>
+    <t>手</t>
+  </si>
+  <si>
+    <t>ไม่</t>
+  </si>
+  <si>
+    <t>不、没</t>
+  </si>
+  <si>
+    <t>รู้</t>
+  </si>
+  <si>
+    <t>知道</t>
+  </si>
+  <si>
+    <t>น้ำชา</t>
+  </si>
+  <si>
+    <t>茶</t>
+  </si>
+  <si>
+    <t>ธุระ</t>
+  </si>
+  <si>
+    <t>事情</t>
+  </si>
+  <si>
+    <t>ใน</t>
+  </si>
+  <si>
+    <t>在……里面</t>
+  </si>
+  <si>
+    <t>ช้า</t>
+  </si>
+  <si>
+    <t>迟</t>
+  </si>
+  <si>
+    <t>ม้า</t>
+  </si>
+  <si>
+    <t>马</t>
+  </si>
+  <si>
+    <t>งา</t>
+  </si>
+  <si>
+    <t>芝麻</t>
+  </si>
+  <si>
+    <t>V1L05</t>
+  </si>
+  <si>
+    <t>V1L06</t>
+  </si>
+  <si>
+    <t>นี่คืออะไรคะ?</t>
+  </si>
+  <si>
+    <t>这是什么？</t>
+  </si>
+  <si>
+    <t>นี่คือนาฬิกาค่ะ</t>
+  </si>
+  <si>
+    <t>这是钟表。</t>
+  </si>
+  <si>
+    <t>แม่มีอะไรในมือคะ?</t>
+  </si>
+  <si>
+    <t>妈妈手里有什么？</t>
+  </si>
+  <si>
+    <t>เราไม่รู้ค่ะ</t>
+  </si>
+  <si>
+    <t>我们不知道。</t>
+  </si>
+  <si>
+    <t>ทำไมไปหาเขาคะ?</t>
+  </si>
+  <si>
+    <t>为什么去找他？</t>
+  </si>
+  <si>
+    <t>เรามีธุระไปหาเขาค่ะ</t>
+  </si>
+  <si>
+    <t>我们有事找他。</t>
   </si>
 </sst>
 </file>
@@ -777,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.9"/>
@@ -802,19 +1108,19 @@
         <v>30</v>
       </c>
       <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
         <v>133</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>134</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.9">
@@ -1309,7 +1615,7 @@
         <v>131</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
@@ -1370,7 +1676,12 @@
       <c r="C48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A49" s="1" t="s">
@@ -1394,7 +1705,12 @@
       <c r="C50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A51" s="1" t="s">
@@ -1552,8 +1868,519 @@
       </c>
       <c r="H63" s="1"/>
     </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A66" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A76" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A77" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A81" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A82" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A83" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A84" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A85" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A86" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A88" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A89" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A90" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A93" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A94" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A95" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A96" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A97" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A98" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A99" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A100" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A101" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A102" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A103" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A104" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="A105" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\ThaiVocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD899233-1418-42CB-88EF-96557933EEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE4ECD-68E5-4268-86AC-51E43E9D0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="259">
   <si>
     <t>ตา</t>
   </si>
@@ -745,6 +745,63 @@
   </si>
   <si>
     <t>我们有事找他。</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>N.</t>
+  </si>
+  <si>
+    <t>V.</t>
+  </si>
+  <si>
+    <t>Adj.</t>
+  </si>
+  <si>
+    <t>Part.V.</t>
+  </si>
+  <si>
+    <t>Pron.Interg.</t>
+  </si>
+  <si>
+    <t>Num.</t>
+  </si>
+  <si>
+    <t>Pron.</t>
+  </si>
+  <si>
+    <t>Conj.</t>
+  </si>
+  <si>
+    <t>Cop.</t>
+  </si>
+  <si>
+    <t>N.;V.</t>
+  </si>
+  <si>
+    <t>Part.Hon.</t>
+  </si>
+  <si>
+    <t>Clf.</t>
+  </si>
+  <si>
+    <t>Pron</t>
+  </si>
+  <si>
+    <t>Dem.</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Part.Nom.</t>
+  </si>
+  <si>
+    <t>Neg.</t>
+  </si>
+  <si>
+    <t>Prep.</t>
   </si>
 </sst>
 </file>
@@ -1083,201 +1140,243 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="2" width="9.06640625" style="1"/>
-    <col min="3" max="3" width="9.06640625" style="2"/>
-    <col min="7" max="7" width="9.06640625" style="1"/>
-    <col min="8" max="8" width="9.06640625" style="2"/>
+    <col min="1" max="3" width="9.06640625" style="1"/>
+    <col min="4" max="4" width="9.06640625" style="2"/>
+    <col min="8" max="8" width="9.06640625" style="1"/>
+    <col min="9" max="9" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>133</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+    <row r="16" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1285,11 +1384,14 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -1297,11 +1399,14 @@
         <v>32</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1309,11 +1414,14 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -1321,11 +1429,14 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -1333,11 +1444,14 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -1345,11 +1459,14 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
@@ -1357,11 +1474,14 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A23" s="1" t="s">
         <v>47</v>
       </c>
@@ -1369,11 +1489,14 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1381,11 +1504,14 @@
         <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
@@ -1393,11 +1519,14 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
@@ -1405,11 +1534,14 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
@@ -1417,11 +1549,14 @@
         <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A28" s="1" t="s">
         <v>57</v>
       </c>
@@ -1429,11 +1564,14 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -1441,11 +1579,14 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A30" s="1" t="s">
         <v>61</v>
       </c>
@@ -1453,11 +1594,14 @@
         <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -1465,11 +1609,14 @@
         <v>129</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A32" s="1" t="s">
         <v>65</v>
       </c>
@@ -1477,11 +1624,14 @@
         <v>129</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
@@ -1489,11 +1639,14 @@
         <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A34" s="1" t="s">
         <v>69</v>
       </c>
@@ -1501,11 +1654,14 @@
         <v>129</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A35" s="1" t="s">
         <v>71</v>
       </c>
@@ -1513,11 +1669,14 @@
         <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
@@ -1525,11 +1684,14 @@
         <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A37" s="1" t="s">
         <v>75</v>
       </c>
@@ -1537,11 +1699,14 @@
         <v>129</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A38" s="1" t="s">
         <v>77</v>
       </c>
@@ -1549,11 +1714,14 @@
         <v>129</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A39" s="1" t="s">
         <v>79</v>
       </c>
@@ -1561,11 +1729,14 @@
         <v>129</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -1573,11 +1744,14 @@
         <v>129</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A41" s="1" t="s">
         <v>83</v>
       </c>
@@ -1585,11 +1759,14 @@
         <v>129</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -1597,11 +1774,14 @@
         <v>129</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -1609,16 +1789,19 @@
         <v>129</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+    <row r="44" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A44" s="1" t="s">
         <v>89</v>
       </c>
@@ -1626,11 +1809,14 @@
         <v>130</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A45" s="1" t="s">
         <v>91</v>
       </c>
@@ -1638,11 +1824,14 @@
         <v>130</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A46" s="1" t="s">
         <v>93</v>
       </c>
@@ -1650,11 +1839,14 @@
         <v>130</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A47" s="1" t="s">
         <v>95</v>
       </c>
@@ -1662,11 +1854,14 @@
         <v>130</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A48" s="1" t="s">
         <v>97</v>
       </c>
@@ -1674,16 +1869,19 @@
         <v>130</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+    <row r="49" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A49" s="1" t="s">
         <v>99</v>
       </c>
@@ -1691,11 +1889,14 @@
         <v>130</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A50" s="1" t="s">
         <v>101</v>
       </c>
@@ -1703,16 +1904,19 @@
         <v>130</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+    <row r="51" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A51" s="1" t="s">
         <v>103</v>
       </c>
@@ -1720,11 +1924,14 @@
         <v>130</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A52" s="1" t="s">
         <v>105</v>
       </c>
@@ -1732,11 +1939,14 @@
         <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A53" s="1" t="s">
         <v>107</v>
       </c>
@@ -1744,11 +1954,14 @@
         <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H53" s="1"/>
-    </row>
-    <row r="54" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
@@ -1756,11 +1969,14 @@
         <v>130</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H54" s="1"/>
-    </row>
-    <row r="55" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A55" s="1" t="s">
         <v>111</v>
       </c>
@@ -1768,11 +1984,14 @@
         <v>130</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H55" s="1"/>
-    </row>
-    <row r="56" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A56" s="1" t="s">
         <v>113</v>
       </c>
@@ -1780,11 +1999,14 @@
         <v>130</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A57" s="1" t="s">
         <v>115</v>
       </c>
@@ -1792,11 +2014,14 @@
         <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A58" s="1" t="s">
         <v>117</v>
       </c>
@@ -1804,11 +2029,14 @@
         <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
@@ -1816,11 +2044,14 @@
         <v>130</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A60" s="1" t="s">
         <v>121</v>
       </c>
@@ -1828,11 +2059,14 @@
         <v>130</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A61" s="1" t="s">
         <v>123</v>
       </c>
@@ -1840,11 +2074,14 @@
         <v>130</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A62" s="1" t="s">
         <v>125</v>
       </c>
@@ -1852,11 +2089,14 @@
         <v>130</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8" ht="18.399999999999999" x14ac:dyDescent="0.9">
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="18.399999999999999" x14ac:dyDescent="0.9">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -1864,11 +2104,14 @@
         <v>130</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.9">
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A64" s="1" t="s">
         <v>142</v>
       </c>
@@ -1876,16 +2119,19 @@
         <v>226</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A65" s="1" t="s">
         <v>144</v>
       </c>
@@ -1893,10 +2139,13 @@
         <v>226</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A66" s="1" t="s">
         <v>146</v>
       </c>
@@ -1904,10 +2153,13 @@
         <v>226</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -1915,10 +2167,13 @@
         <v>226</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A68" s="1" t="s">
         <v>150</v>
       </c>
@@ -1926,10 +2181,13 @@
         <v>226</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A69" s="1" t="s">
         <v>152</v>
       </c>
@@ -1937,10 +2195,13 @@
         <v>226</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A70" s="1" t="s">
         <v>154</v>
       </c>
@@ -1948,10 +2209,13 @@
         <v>226</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -1959,10 +2223,13 @@
         <v>226</v>
       </c>
       <c r="C71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A72" s="1" t="s">
         <v>158</v>
       </c>
@@ -1970,10 +2237,13 @@
         <v>226</v>
       </c>
       <c r="C72" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -1981,10 +2251,13 @@
         <v>226</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
@@ -1992,21 +2265,24 @@
         <v>226</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A76" s="1" t="s">
         <v>166</v>
       </c>
@@ -2014,10 +2290,13 @@
         <v>226</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
@@ -2025,10 +2304,13 @@
         <v>226</v>
       </c>
       <c r="C77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -2036,10 +2318,13 @@
         <v>226</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A79" s="1" t="s">
         <v>172</v>
       </c>
@@ -2047,21 +2332,24 @@
         <v>226</v>
       </c>
       <c r="C79" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.9">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.9">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A81" s="1" t="s">
         <v>176</v>
       </c>
@@ -2069,10 +2357,13 @@
         <v>226</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A82" s="1" t="s">
         <v>178</v>
       </c>
@@ -2080,16 +2371,19 @@
         <v>227</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
@@ -2097,10 +2391,13 @@
         <v>227</v>
       </c>
       <c r="C83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A84" s="1" t="s">
         <v>182</v>
       </c>
@@ -2108,16 +2405,19 @@
         <v>227</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A85" s="1" t="s">
         <v>184</v>
       </c>
@@ -2125,16 +2425,19 @@
         <v>227</v>
       </c>
       <c r="C85" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A86" s="1" t="s">
         <v>186</v>
       </c>
@@ -2142,10 +2445,13 @@
         <v>227</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A87" s="1" t="s">
         <v>188</v>
       </c>
@@ -2153,16 +2459,19 @@
         <v>227</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A88" s="1" t="s">
         <v>190</v>
       </c>
@@ -2170,21 +2479,24 @@
         <v>227</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A89" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A90" s="1" t="s">
         <v>194</v>
       </c>
@@ -2192,10 +2504,13 @@
         <v>227</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A91" s="1" t="s">
         <v>196</v>
       </c>
@@ -2203,16 +2518,19 @@
         <v>227</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A92" s="1" t="s">
         <v>198</v>
       </c>
@@ -2220,10 +2538,13 @@
         <v>227</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A93" s="1" t="s">
         <v>200</v>
       </c>
@@ -2231,10 +2552,13 @@
         <v>227</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A94" s="1" t="s">
         <v>202</v>
       </c>
@@ -2242,10 +2566,13 @@
         <v>227</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A95" s="1" t="s">
         <v>204</v>
       </c>
@@ -2253,10 +2580,13 @@
         <v>227</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A96" s="1" t="s">
         <v>206</v>
       </c>
@@ -2264,10 +2594,13 @@
         <v>227</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A97" s="1" t="s">
         <v>208</v>
       </c>
@@ -2275,10 +2608,13 @@
         <v>227</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A98" s="1" t="s">
         <v>210</v>
       </c>
@@ -2286,10 +2622,13 @@
         <v>227</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A99" s="1" t="s">
         <v>212</v>
       </c>
@@ -2297,16 +2636,19 @@
         <v>227</v>
       </c>
       <c r="C99" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A100" s="1" t="s">
         <v>214</v>
       </c>
@@ -2314,10 +2656,13 @@
         <v>227</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A101" s="1" t="s">
         <v>216</v>
       </c>
@@ -2325,16 +2670,19 @@
         <v>227</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="I101" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A102" s="1" t="s">
         <v>218</v>
       </c>
@@ -2342,10 +2690,13 @@
         <v>227</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A103" s="1" t="s">
         <v>220</v>
       </c>
@@ -2353,10 +2704,13 @@
         <v>227</v>
       </c>
       <c r="C103" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A104" s="1" t="s">
         <v>222</v>
       </c>
@@ -2364,10 +2718,13 @@
         <v>227</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.9">
       <c r="A105" s="1" t="s">
         <v>224</v>
       </c>
@@ -2375,6 +2732,9 @@
         <v>227</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>225</v>
       </c>
     </row>

--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\ThaiVocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FE4ECD-68E5-4268-86AC-51E43E9D0F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDCB4B6-E77E-43F9-805E-B1652A6354E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="351">
   <si>
     <t>ตา</t>
   </si>
@@ -802,6 +802,282 @@
   </si>
   <si>
     <t>Prep.</t>
+  </si>
+  <si>
+    <t>ตั๋ว</t>
+  </si>
+  <si>
+    <t>票</t>
+  </si>
+  <si>
+    <t>ย่า</t>
+  </si>
+  <si>
+    <t>祖母</t>
+  </si>
+  <si>
+    <t>วัว</t>
+  </si>
+  <si>
+    <t>黄牛</t>
+  </si>
+  <si>
+    <t>เสื้อผ้า</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>เชื่อ</t>
+  </si>
+  <si>
+    <t>相信</t>
+  </si>
+  <si>
+    <t>ว่า</t>
+  </si>
+  <si>
+    <t>Complementizer</t>
+  </si>
+  <si>
+    <t>มะละกอ</t>
+  </si>
+  <si>
+    <t>木瓜</t>
+  </si>
+  <si>
+    <t>เรือ</t>
+  </si>
+  <si>
+    <t>船</t>
+  </si>
+  <si>
+    <t>หัว</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>ตัว</t>
+  </si>
+  <si>
+    <t>只、个</t>
+  </si>
+  <si>
+    <t>ที่นี่</t>
+  </si>
+  <si>
+    <t>这里</t>
+  </si>
+  <si>
+    <t>ชั่ว</t>
+  </si>
+  <si>
+    <t>恶的；恶行</t>
+  </si>
+  <si>
+    <t>มะเขือ</t>
+  </si>
+  <si>
+    <t>茄子</t>
+  </si>
+  <si>
+    <t>เลีย</t>
+  </si>
+  <si>
+    <t>舔</t>
+  </si>
+  <si>
+    <t>เสือ</t>
+  </si>
+  <si>
+    <t>老虎</t>
+  </si>
+  <si>
+    <t>มัว</t>
+  </si>
+  <si>
+    <t>模糊不清</t>
+  </si>
+  <si>
+    <t>เนื้อ</t>
+  </si>
+  <si>
+    <t>肉；牛肉</t>
+  </si>
+  <si>
+    <t>เพ่อ</t>
+  </si>
+  <si>
+    <t>为了</t>
+  </si>
+  <si>
+    <t>ผัวเมีย</t>
+  </si>
+  <si>
+    <t>夫妻（口语）</t>
+  </si>
+  <si>
+    <t>หัวเราะ</t>
+  </si>
+  <si>
+    <t>笑</t>
+  </si>
+  <si>
+    <t>เมื่อ</t>
+  </si>
+  <si>
+    <t>当......时候；再......时候</t>
+  </si>
+  <si>
+    <t>เมื่อเช้า</t>
+  </si>
+  <si>
+    <t>今天早上</t>
+  </si>
+  <si>
+    <t>เยอะแยะ</t>
+  </si>
+  <si>
+    <t>多</t>
+  </si>
+  <si>
+    <t>ราคา</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>สาลี่</t>
+  </si>
+  <si>
+    <t>雪梨</t>
+  </si>
+  <si>
+    <t>กาแฟ</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>เบื่อ</t>
+  </si>
+  <si>
+    <t>厌烦</t>
+  </si>
+  <si>
+    <t>ซาลาเปา</t>
+  </si>
+  <si>
+    <t>包子</t>
+  </si>
+  <si>
+    <t>เชื่อใจ</t>
+  </si>
+  <si>
+    <t>เวลา</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>นาฬิกาข้อมือ</t>
+  </si>
+  <si>
+    <t>手表</t>
+  </si>
+  <si>
+    <t>สีเทา</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>ลำไย</t>
+  </si>
+  <si>
+    <t>龙眼</t>
+  </si>
+  <si>
+    <t>เงาะ</t>
+  </si>
+  <si>
+    <t>红毛丹</t>
+  </si>
+  <si>
+    <t>รอ</t>
+  </si>
+  <si>
+    <t>等待、等候</t>
+  </si>
+  <si>
+    <t>บัว</t>
+  </si>
+  <si>
+    <t>荷花</t>
+  </si>
+  <si>
+    <t>มีน่าเล่า</t>
+  </si>
+  <si>
+    <t>怪不得</t>
+  </si>
+  <si>
+    <t>แน่ใจ</t>
+  </si>
+  <si>
+    <t>肯定</t>
+  </si>
+  <si>
+    <t>เนื่อตะกี้</t>
+  </si>
+  <si>
+    <t>刚才</t>
+  </si>
+  <si>
+    <t>V1L07</t>
+  </si>
+  <si>
+    <t>V1L08</t>
+  </si>
+  <si>
+    <t>Complz.</t>
+  </si>
+  <si>
+    <t>Adv.</t>
+  </si>
+  <si>
+    <t>Exp.</t>
+  </si>
+  <si>
+    <t>พ่อซื้อนาฬิกาข้อมือให้ปู่</t>
+  </si>
+  <si>
+    <t>爸爸给爷爷买了手表。</t>
+  </si>
+  <si>
+    <t>ที่นี่มีวัวกี่ตัวคะ</t>
+  </si>
+  <si>
+    <t>这里有几头黄牛？</t>
+  </si>
+  <si>
+    <t>เขาไปซื้อตั๋วค่ะ</t>
+  </si>
+  <si>
+    <t>他去买票</t>
+  </si>
+  <si>
+    <t>แม่ซื้อเสื้อผ้าให้เรา</t>
+  </si>
+  <si>
+    <t>妈妈给我们买衣服。</t>
+  </si>
+  <si>
+    <t>เราเชื่อว่าทำดีได้ดี ทำชั่วได้ชั่ว</t>
+  </si>
+  <si>
+    <t>我们相信善有善报恶有恶报</t>
   </si>
 </sst>
 </file>
@@ -1140,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.9"/>
@@ -2738,6 +3014,585 @@
         <v>225</v>
       </c>
     </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A107" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A114" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A115" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A116" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A118" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A119" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A120" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A121" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A122" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A123" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A124" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A125" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A126" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A127" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A128" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A129" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A130" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A131" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A132" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A133" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A135" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A136" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A137" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A138" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A139" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A140" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A141" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A142" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A143" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A144" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Vocab.xlsx
+++ b/Vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02 Trae\ThaiVocab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDCB4B6-E77E-43F9-805E-B1652A6354E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D78D5E5-F764-47B0-9F0D-8E1FBFF77619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="484">
   <si>
     <t>ตา</t>
   </si>
@@ -1078,6 +1078,405 @@
   </si>
   <si>
     <t>我们相信善有善报恶有恶报</t>
+  </si>
+  <si>
+    <t>V1L09</t>
+  </si>
+  <si>
+    <t>คุณ</t>
+  </si>
+  <si>
+    <t>你（放在姓名前面表示尊重）</t>
+  </si>
+  <si>
+    <t>ชื่อเล่น</t>
+  </si>
+  <si>
+    <t>小名</t>
+  </si>
+  <si>
+    <t>คน</t>
+  </si>
+  <si>
+    <t>人，个</t>
+  </si>
+  <si>
+    <t>โรงเรียน</t>
+  </si>
+  <si>
+    <t>学校</t>
+  </si>
+  <si>
+    <t>ผม</t>
+  </si>
+  <si>
+    <t>我（指男性）</t>
+  </si>
+  <si>
+    <t>นั่น</t>
+  </si>
+  <si>
+    <t>那</t>
+  </si>
+  <si>
+    <t>วิชา</t>
+  </si>
+  <si>
+    <t>科目，课程</t>
+  </si>
+  <si>
+    <t>แผนที่</t>
+  </si>
+  <si>
+    <t>地图</t>
+  </si>
+  <si>
+    <t>ของ</t>
+  </si>
+  <si>
+    <t>的（表所属）</t>
+  </si>
+  <si>
+    <t>สอง</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>ครับ</t>
+  </si>
+  <si>
+    <t>语尾助词（男性用）</t>
+  </si>
+  <si>
+    <t>บ้าง</t>
+  </si>
+  <si>
+    <t>一些</t>
+  </si>
+  <si>
+    <t>ข้าว</t>
+  </si>
+  <si>
+    <t>饭</t>
+  </si>
+  <si>
+    <t>ดีฉัน</t>
+  </si>
+  <si>
+    <t>我（指女性）</t>
+  </si>
+  <si>
+    <t>เป็น</t>
+  </si>
+  <si>
+    <t>เรียน</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>ห้องเรียน</t>
+  </si>
+  <si>
+    <t>课室</t>
+  </si>
+  <si>
+    <t>เมือง</t>
+  </si>
+  <si>
+    <t>国家，城市</t>
+  </si>
+  <si>
+    <t>โน่น</t>
+  </si>
+  <si>
+    <t>那（远指）</t>
+  </si>
+  <si>
+    <t>จีน</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>อาหาร</t>
+  </si>
+  <si>
+    <t>饭菜，食物</t>
+  </si>
+  <si>
+    <t>น้อง</t>
+  </si>
+  <si>
+    <t>弟弟，妹妹</t>
+  </si>
+  <si>
+    <t>สาน</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>เดิน</t>
+  </si>
+  <si>
+    <t>走，走路</t>
+  </si>
+  <si>
+    <t>กิน</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>โรงอาหาร</t>
+  </si>
+  <si>
+    <t>食堂</t>
+  </si>
+  <si>
+    <t>นักศึกษา</t>
+  </si>
+  <si>
+    <t>大学生</t>
+  </si>
+  <si>
+    <t>จาก</t>
+  </si>
+  <si>
+    <t>自、来自</t>
+  </si>
+  <si>
+    <t>เซี่ยงไฮ</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>ฮกเกี้ยน</t>
+  </si>
+  <si>
+    <t>福建</t>
+  </si>
+  <si>
+    <t>ปักกิ่ง</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>บางคน</t>
+  </si>
+  <si>
+    <t>有些人</t>
+  </si>
+  <si>
+    <t>ที่</t>
+  </si>
+  <si>
+    <t>地方；关系副词</t>
+  </si>
+  <si>
+    <t>ต่าง ๆ</t>
+  </si>
+  <si>
+    <t>各个、各种</t>
+  </si>
+  <si>
+    <t>ทุก</t>
+  </si>
+  <si>
+    <t>每</t>
+  </si>
+  <si>
+    <t>แล้ว</t>
+  </si>
+  <si>
+    <t>那么；了</t>
+  </si>
+  <si>
+    <t>ต่าง</t>
+  </si>
+  <si>
+    <t>都</t>
+  </si>
+  <si>
+    <t>ชอบ</t>
+  </si>
+  <si>
+    <t>喜欢</t>
+  </si>
+  <si>
+    <t>สวัสดี</t>
+  </si>
+  <si>
+    <t>你好</t>
+  </si>
+  <si>
+    <t>ขอโทษ</t>
+  </si>
+  <si>
+    <t>对不起</t>
+  </si>
+  <si>
+    <t>ยินดี</t>
+  </si>
+  <si>
+    <t>ขอบคุณ</t>
+  </si>
+  <si>
+    <t>谢谢</t>
+  </si>
+  <si>
+    <t>รัก</t>
+  </si>
+  <si>
+    <t>爱、热爱</t>
+  </si>
+  <si>
+    <t>ท่าน</t>
+  </si>
+  <si>
+    <t>您</t>
+  </si>
+  <si>
+    <t>เมืองไทย</t>
+  </si>
+  <si>
+    <t>泰国</t>
+  </si>
+  <si>
+    <t>เมืองจีน</t>
+  </si>
+  <si>
+    <t>นามสกุล</t>
+  </si>
+  <si>
+    <t>姓、姓氏</t>
+  </si>
+  <si>
+    <t>เช่นเดียวกัน</t>
+  </si>
+  <si>
+    <t>同样</t>
+  </si>
+  <si>
+    <t>หอพัก</t>
+  </si>
+  <si>
+    <t>宿舍</t>
+  </si>
+  <si>
+    <t>ซัก</t>
+  </si>
+  <si>
+    <t>（搓）洗</t>
+  </si>
+  <si>
+    <t>ทำงาน</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>ห้องพัก</t>
+  </si>
+  <si>
+    <t>น้องสาว</t>
+  </si>
+  <si>
+    <t>妹妹</t>
+  </si>
+  <si>
+    <t>น้องชาย</t>
+  </si>
+  <si>
+    <t>弟弟</t>
+  </si>
+  <si>
+    <t>ผู้ชาย</t>
+  </si>
+  <si>
+    <t>男子、男性</t>
+  </si>
+  <si>
+    <t>ต้อง</t>
+  </si>
+  <si>
+    <t>必须</t>
+  </si>
+  <si>
+    <t>ฟัง</t>
+  </si>
+  <si>
+    <t>听</t>
+  </si>
+  <si>
+    <t>ได้ยิน</t>
+  </si>
+  <si>
+    <t>听见</t>
+  </si>
+  <si>
+    <t>ก็</t>
+  </si>
+  <si>
+    <t>就</t>
+  </si>
+  <si>
+    <t>V1L10</t>
+  </si>
+  <si>
+    <t>SFP.</t>
+  </si>
+  <si>
+    <t>Quant.</t>
+  </si>
+  <si>
+    <t>N.P.</t>
+  </si>
+  <si>
+    <t>P.N.</t>
+  </si>
+  <si>
+    <t>N./Relz.</t>
+  </si>
+  <si>
+    <t>Ephat./Part.V.</t>
+  </si>
+  <si>
+    <t>Part.</t>
+  </si>
+  <si>
+    <t>คุณชื่ออะไรคะ?</t>
+  </si>
+  <si>
+    <t>您叫什么名字？</t>
+  </si>
+  <si>
+    <t>ในห้องเรียนมีอะไรบ้างคะ?</t>
+  </si>
+  <si>
+    <t>教室里有些什么？</t>
+  </si>
+  <si>
+    <t>โน่นคือแผนที่จีนค่ะ</t>
+  </si>
+  <si>
+    <t>那是中国地图。</t>
+  </si>
+  <si>
+    <t>ดิฉันเรียนวิชาภาษาไทย</t>
+  </si>
+  <si>
+    <t>我学泰语。</t>
+  </si>
+  <si>
+    <t>ในห้องเรียงของเรามีโต๊ะและเก้าอี้ค่ะ</t>
+  </si>
+  <si>
+    <t>我们的教室里有桌子和椅子。</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I144"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H157" sqref="H157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.149999999999999" x14ac:dyDescent="0.9"/>
@@ -3593,6 +3992,868 @@
         <v>335</v>
       </c>
     </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A145" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A146" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A147" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A148" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A149" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A150" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A151" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A152" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A153" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A154" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A155" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A156" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A157" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A158" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A159" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A160" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A161" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A162" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A163" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A164" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A165" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A166" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A167" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A168" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A169" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A170" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A171" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A172" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A173" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A174" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A175" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.9">
+      <c r="A176" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A177" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A178" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A179" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A180" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A181" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A182" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A183" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A184" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A185" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A186" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A187" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A188" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A189" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A190" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A191" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A192" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A193" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A194" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A195" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A196" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A197" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A198" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A199" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A200" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A201" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A202" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.9">
+      <c r="A203" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
